--- a/src/TestInput/TestData.xlsx
+++ b/src/TestInput/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15940" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Action</t>
   </si>
@@ -27,26 +27,72 @@
     <t>Registration</t>
   </si>
   <si>
-    <t>Login</t>
-  </si>
-  <si>
-    <t>Order</t>
-  </si>
-  <si>
-    <t>Username</t>
-  </si>
-  <si>
     <t>Password</t>
+  </si>
+  <si>
+    <t>TestCaseName</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>TC001</t>
+  </si>
+  <si>
+    <t>eMail</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>User001</t>
+  </si>
+  <si>
+    <t>pass001</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>jkjkkm.c@g.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -69,13 +115,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -405,41 +458,74 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
